--- a/dev/data/VORPAN_data.xlsx
+++ b/dev/data/VORPAN_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremiah Goates\git-repos\VORPAN\dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF75CB2-8885-4432-9174-F7F5E5E0E2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D86B3A-340D-4FCB-972F-E0BF435C06FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{92C2FE4D-E337-4973-AB53-A3120A7DEA92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{92C2FE4D-E337-4973-AB53-A3120A7DEA92}"/>
   </bookViews>
   <sheets>
     <sheet name="0015" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8F9258-9BC5-4A98-9907-D2FC218E9109}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,296 +446,408 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="B2">
-        <v>-1.22873730094553</v>
+        <v>-1.4711864716509899</v>
       </c>
       <c r="C2">
-        <v>0.32032405248236601</v>
+        <v>0.38093525292472402</v>
       </c>
       <c r="D2">
-        <v>1.31397272459827E-2</v>
+        <v>2.1175873555360401E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="B3">
-        <v>-1.1069327932544</v>
+        <v>-1.3501675233517501</v>
       </c>
       <c r="C3">
-        <v>0.28941446243957297</v>
+        <v>0.35084337700934798</v>
       </c>
       <c r="D3">
-        <v>1.2681264125972499E-2</v>
+        <v>1.9503091226775699E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="B4">
-        <v>-0.98479110311134399</v>
+        <v>-1.22873730094553</v>
       </c>
       <c r="C4">
-        <v>0.258152265455176</v>
+        <v>0.32032405248236601</v>
       </c>
       <c r="D4">
-        <v>1.1954489677340099E-2</v>
+        <v>1.7806547385752099E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="B5">
-        <v>-0.86234943605839598</v>
+        <v>-1.1069327932544</v>
       </c>
       <c r="C5">
-        <v>0.22657554970063001</v>
+        <v>0.28941446243957297</v>
       </c>
       <c r="D5">
-        <v>1.09881906860314E-2</v>
+        <v>1.60883090096277E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="B6">
-        <v>-0.73964508901345405</v>
+        <v>-0.98479110311134399</v>
       </c>
       <c r="C6">
-        <v>0.194722786540062</v>
+        <v>0.258152265455176</v>
       </c>
       <c r="D6">
-        <v>9.8115142866992099E-3</v>
+        <v>1.4350469507188299E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="B7">
-        <v>-0.61671543890929703</v>
+        <v>-0.86234943605839598</v>
       </c>
       <c r="C7">
-        <v>0.16263278365884001</v>
+        <v>0.22657554970063001</v>
       </c>
       <c r="D7">
-        <v>8.4539239315166697E-3</v>
+        <v>1.2595146168174099E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="B8">
-        <v>-0.49359793130819102</v>
+        <v>-0.73964508901345405</v>
       </c>
       <c r="C8">
-        <v>0.130344637782392</v>
+        <v>0.194722786540062</v>
       </c>
       <c r="D8">
-        <v>6.9451549553440003E-3</v>
+        <v>1.0824477583688799E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="B9">
-        <v>-0.37033006899561599</v>
+        <v>-0.61671543890929703</v>
       </c>
       <c r="C9">
-        <v>9.7897687042857007E-2</v>
+        <v>0.16263278365884001</v>
       </c>
       <c r="D9">
-        <v>5.3151697939529197E-3</v>
+        <v>9.0406210406495605E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B10">
-        <v>-0.246949400556565</v>
+        <v>-0.49359793130819102</v>
       </c>
       <c r="C10">
-        <v>6.5331463051643696E-2</v>
+        <v>0.130344637782392</v>
       </c>
       <c r="D10">
-        <v>3.5941129125023901E-3</v>
+        <v>7.2457498934743797E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B11">
-        <v>-0.123493508937844</v>
+        <v>-0.37033006899561599</v>
       </c>
       <c r="C11">
-        <v>3.268564273624E-2</v>
+        <v>9.7897687042857007E-2</v>
       </c>
       <c r="D11">
-        <v>1.8122655017790599E-3</v>
+        <v>5.4420509161766098E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B12" s="1">
-        <v>6.07741396270455E-15</v>
+        <v>-0.246949400556565</v>
       </c>
       <c r="C12" s="1">
-        <v>1.6785256633696399E-15</v>
+        <v>6.5331463051643696E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>3.19787915404578E-15</v>
+        <v>3.6317216381197802E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B13">
-        <v>0.12349350893785301</v>
+        <v>-0.123493508937844</v>
       </c>
       <c r="C13">
-        <v>-3.2685642736237398E-2</v>
+        <v>3.268564273624E-2</v>
       </c>
       <c r="D13">
-        <v>-1.8122655017740799E-3</v>
+        <v>1.8169676666704201E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>0.24694940055657</v>
-      </c>
-      <c r="C14">
-        <v>-6.5331463051639602E-2</v>
-      </c>
-      <c r="D14">
-        <v>-3.5941129124970098E-3</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6.07741396270455E-15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.6785256633696399E-15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.19787915404578E-15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>0.37033006899562898</v>
+        <v>0.12349350893785301</v>
       </c>
       <c r="C15">
-        <v>-9.7897687042853607E-2</v>
+        <v>-3.2685642736237398E-2</v>
       </c>
       <c r="D15">
-        <v>-5.3151697939463798E-3</v>
+        <v>-1.8169676666654499E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>0.49359793130819901</v>
+        <v>0.24694940055657</v>
       </c>
       <c r="C16">
-        <v>-0.130344637782388</v>
+        <v>-6.5331463051639602E-2</v>
       </c>
       <c r="D16">
-        <v>-6.94515495533885E-3</v>
+        <v>-3.63172163811439E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>0.61671543890930502</v>
+        <v>0.37033006899562898</v>
       </c>
       <c r="C17">
-        <v>-0.16263278365883799</v>
+        <v>-9.7897687042853607E-2</v>
       </c>
       <c r="D17">
-        <v>-8.4539239315115904E-3</v>
+        <v>-5.4420509161700803E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>0.73964508901346204</v>
+        <v>0.49359793130819901</v>
       </c>
       <c r="C18">
-        <v>-0.19472278654005901</v>
+        <v>-0.130344637782388</v>
       </c>
       <c r="D18">
-        <v>-9.8115142866934107E-3</v>
+        <v>-7.2457498934692301E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>0.86234943605840098</v>
+        <v>0.61671543890930502</v>
       </c>
       <c r="C19">
-        <v>-0.22657554970062599</v>
+        <v>-0.16263278365883799</v>
       </c>
       <c r="D19">
-        <v>-1.0988190686025899E-2</v>
+        <v>-9.0406210406444795E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>0.98479110311135298</v>
+        <v>0.73964508901346204</v>
       </c>
       <c r="C20">
-        <v>-0.258152265455173</v>
+        <v>-0.19472278654005901</v>
       </c>
       <c r="D20">
-        <v>-1.1954489677334699E-2</v>
+        <v>-1.0824477583683E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>1.10693279325441</v>
+        <v>0.86234943605840098</v>
       </c>
       <c r="C21">
-        <v>-0.28941446243956898</v>
+        <v>-0.22657554970062599</v>
       </c>
       <c r="D21">
-        <v>-1.2681264125966599E-2</v>
+        <v>-1.25951461681686E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>0.98479110311135298</v>
+      </c>
+      <c r="C22">
+        <v>-0.258152265455173</v>
+      </c>
+      <c r="D22">
+        <v>-1.4350469507182899E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>1.10693279325441</v>
+      </c>
+      <c r="C23">
+        <v>-0.28941446243956898</v>
+      </c>
+      <c r="D23">
+        <v>-1.6088309009621899E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>10</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>1.22873730094554</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>-0.32032405248236301</v>
       </c>
-      <c r="D22">
-        <v>-1.3139727245977499E-2</v>
+      <c r="D24">
+        <v>-1.7806547385746899E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1.35016752335176</v>
+      </c>
+      <c r="C25">
+        <v>-0.35084337700934498</v>
+      </c>
+      <c r="D25">
+        <v>-1.9503091226770498E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>1.4711864716509999</v>
+      </c>
+      <c r="C26">
+        <v>-0.38093525292472202</v>
+      </c>
+      <c r="D26">
+        <v>-2.1175873555356502E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>1.59175728229927</v>
+      </c>
+      <c r="C27">
+        <v>-0.410563017912985</v>
+      </c>
+      <c r="D27">
+        <v>-2.2822856343906801E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>1.7118432282596601</v>
+      </c>
+      <c r="C28">
+        <v>-0.43969057510630699</v>
+      </c>
+      <c r="D28">
+        <v>-2.44420329975941E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>1.83140773018971</v>
+      </c>
+      <c r="C29">
+        <v>-0.46828243706300299</v>
+      </c>
+      <c r="D29">
+        <v>-2.60314307990804E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>1.9504143675839101</v>
+      </c>
+      <c r="C30">
+        <v>-0.49630376900351802</v>
+      </c>
+      <c r="D30">
+        <v>-2.7589113311973199E-2</v>
       </c>
     </row>
   </sheetData>
@@ -745,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761E52C5-B50B-4BDD-9405-B7DA276F3190}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A23"/>
+      <selection activeCell="D30" sqref="A1:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,296 +881,408 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="B2">
-        <v>-1.0040651855131399</v>
+        <v>-1.2594612929462701</v>
       </c>
       <c r="C2">
-        <v>0.218401659985933</v>
+        <v>0.28410760526095002</v>
       </c>
       <c r="D2">
-        <v>-3.2614636392353097E-2</v>
+        <v>-2.3877155217172701E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="B3">
-        <v>-0.87588888453408098</v>
+        <v>-1.1319356385101</v>
       </c>
       <c r="C3">
-        <v>0.184921093932468</v>
+        <v>0.25147726293785599</v>
       </c>
       <c r="D3">
-        <v>-3.4051127201051697E-2</v>
+        <v>-2.63074352308212E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="B4">
-        <v>-0.74744577931585898</v>
+        <v>-1.0040651855131399</v>
       </c>
       <c r="C4">
-        <v>0.15107635568991501</v>
+        <v>0.218401659985933</v>
       </c>
       <c r="D4">
-        <v>-3.5785089139048903E-2</v>
+        <v>-2.88011348198133E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="B5">
-        <v>-0.61877499487258403</v>
+        <v>-0.87588888453408098</v>
       </c>
       <c r="C5">
-        <v>0.116908679858436</v>
+        <v>0.184921093932468</v>
       </c>
       <c r="D5">
-        <v>-3.7785068859710003E-2</v>
+        <v>-3.13552157953296E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="B6">
-        <v>-0.48991572557166602</v>
+        <v>-0.74744577931585898</v>
       </c>
       <c r="C6">
-        <v>8.2459694487909393E-2</v>
+        <v>0.15107635568991501</v>
       </c>
       <c r="D6">
-        <v>-4.0019236905007201E-2</v>
+        <v>-3.3966566403122601E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="B7">
-        <v>-0.36090722319482299</v>
+        <v>-0.61877499487258403</v>
       </c>
       <c r="C7">
-        <v>4.7771370360544997E-2</v>
+        <v>0.116908679858436</v>
       </c>
       <c r="D7">
-        <v>-4.2455435438160702E-2</v>
+        <v>-3.6632005114729499E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="B8">
-        <v>-0.23178878498160199</v>
+        <v>-0.48991572557166602</v>
       </c>
       <c r="C8">
-        <v>1.2885969855968E-2</v>
+        <v>8.2459694487909393E-2</v>
       </c>
       <c r="D8">
-        <v>-4.5061226389432399E-2</v>
+        <v>-3.9348284503654699E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="B9">
-        <v>-0.102599741659089</v>
+        <v>-0.36090722319482299</v>
       </c>
       <c r="C9">
-        <v>-2.2154004538989601E-2</v>
+        <v>4.7771370360544997E-2</v>
       </c>
       <c r="D9">
-        <v>-4.7803939953761997E-2</v>
+        <v>-4.2112095201879203E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B10">
-        <v>2.6620554538637001E-2</v>
+        <v>-0.23178878498160199</v>
       </c>
       <c r="C10">
-        <v>-5.7305862013023498E-2</v>
+        <v>1.2885969855968E-2</v>
       </c>
       <c r="D10">
-        <v>-5.06507233783643E-2</v>
+        <v>-4.4920069931794503E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B11">
-        <v>0.15583274185757401</v>
+        <v>-0.102599741659089</v>
       </c>
       <c r="C11">
-        <v>-9.25267754425316E-2</v>
+        <v>-2.2154004538989601E-2</v>
       </c>
       <c r="D11">
-        <v>-5.3568589978138098E-2</v>
+        <v>-4.7768787608728699E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B12">
-        <v>0.284997461013756</v>
+        <v>2.6620554538637001E-2</v>
       </c>
       <c r="C12">
-        <v>-0.12777383356986199</v>
+        <v>-5.7305862013023498E-2</v>
       </c>
       <c r="D12">
-        <v>-5.6524468316423403E-2</v>
+        <v>-5.0654777509004698E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B13">
-        <v>0.41407536718247701</v>
+        <v>0.15583274185757401</v>
       </c>
       <c r="C13">
-        <v>-0.163004093284084</v>
+        <v>-9.25267754425316E-2</v>
       </c>
       <c r="D13">
-        <v>-5.9485251488465403E-2</v>
+        <v>-5.3574523498482497E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.54302714198312096</v>
+        <v>0.284997461013756</v>
       </c>
       <c r="C14">
-        <v>-0.198174631940539</v>
+        <v>-0.12777383356986199</v>
       </c>
       <c r="D14">
-        <v>-6.2417846444759201E-2</v>
+        <v>-5.6524468316423403E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>0.67181350545589302</v>
+        <v>0.41407536718247701</v>
       </c>
       <c r="C15">
-        <v>-0.23324259965548</v>
+        <v>-0.163004093284084</v>
       </c>
       <c r="D15">
-        <v>-6.5289223291507006E-2</v>
+        <v>-5.9501017909475602E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>0.8003952280269</v>
+        <v>0.54302714198312096</v>
       </c>
       <c r="C16">
-        <v>-0.26816527151205299</v>
+        <v>-0.198174631940539</v>
       </c>
       <c r="D16">
-        <v>-6.8066464505328106E-2</v>
+        <v>-6.2500545810457594E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>0.92873314245784599</v>
+        <v>0.67181350545589302</v>
       </c>
       <c r="C17">
-        <v>-0.30290009961402697</v>
+        <v>-0.23324259965548</v>
       </c>
       <c r="D17">
-        <v>-7.07168139995656E-2</v>
+        <v>-6.5519397556665804E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>1.05678815577675</v>
+        <v>0.8003952280269</v>
       </c>
       <c r="C18">
-        <v>-0.33740476492384802</v>
+        <v>-0.26816527151205299</v>
       </c>
       <c r="D18">
-        <v>-7.3207725979658397E-2</v>
+        <v>-6.8553895142265703E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>1.18452126118608</v>
+        <v>0.92873314245784599</v>
       </c>
       <c r="C19">
-        <v>-0.371637228821873</v>
+        <v>-0.30290009961402697</v>
       </c>
       <c r="D19">
-        <v>-7.5506913525351702E-2</v>
+        <v>-7.1600341499379105E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>1.3118935499445401</v>
+        <v>1.05678815577675</v>
       </c>
       <c r="C20">
-        <v>-0.40555578432395101</v>
+        <v>-0.33740476492384802</v>
       </c>
       <c r="D20">
-        <v>-7.7582396837815398E-2</v>
+        <v>-7.4655025002386993E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>1.4388662232190801</v>
+        <v>1.18452126118608</v>
       </c>
       <c r="C21">
-        <v>-0.43911910689495298</v>
+        <v>-0.371637228821873</v>
       </c>
       <c r="D21">
-        <v>-7.9402551090181198E-2</v>
+        <v>-7.77142239899795E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1.3118935499445401</v>
+      </c>
+      <c r="C22">
+        <v>-0.40555578432395101</v>
+      </c>
+      <c r="D22">
+        <v>-8.0774211299424803E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>1.4388662232190801</v>
+      </c>
+      <c r="C23">
+        <v>-0.43911910689495298</v>
+      </c>
+      <c r="D23">
+        <v>-8.3831258807539694E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>10</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>1.5654006039034201</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>-0.47228630479636002</v>
       </c>
-      <c r="D22">
-        <v>-8.0936153820503995E-2</v>
+      <c r="D24">
+        <v>-8.6881641972838902E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1.69145814839944</v>
+      </c>
+      <c r="C25">
+        <v>-0.50501696890654502</v>
+      </c>
+      <c r="D25">
+        <v>-8.9921644373308907E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>1.81700045835793</v>
+      </c>
+      <c r="C26">
+        <v>-0.53727122195306398</v>
+      </c>
+      <c r="D26">
+        <v>-9.2947562234304199E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>1.9419892923751301</v>
+      </c>
+      <c r="C27">
+        <v>-0.56900976709696205</v>
+      </c>
+      <c r="D27">
+        <v>-9.59557089410146E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>2.0663865776413899</v>
+      </c>
+      <c r="C28">
+        <v>-0.60019393580993297</v>
+      </c>
+      <c r="D28">
+        <v>-9.8942419530051201E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>2.19015442153857</v>
+      </c>
+      <c r="C29">
+        <v>-0.63078573498595303</v>
+      </c>
+      <c r="D29">
+        <v>-0.101904055154626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>2.3132551231824499</v>
+      </c>
+      <c r="C30">
+        <v>-0.66074789323003003</v>
+      </c>
+      <c r="D30">
+        <v>-0.10483700751793699</v>
       </c>
     </row>
   </sheetData>
@@ -1068,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADC015E-EB52-4C62-A481-CF020CAF206B}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="A1:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,296 +1316,408 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="B2">
-        <v>-0.94563593277771696</v>
+        <v>-1.1843445205888901</v>
       </c>
       <c r="C2">
-        <v>0.190142318062685</v>
+        <v>0.24913197790279401</v>
       </c>
       <c r="D2">
-        <v>-4.6266665131743601E-2</v>
+        <v>-4.0483959911270899E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="B3">
-        <v>-0.82583136112841005</v>
+        <v>-1.06515245456132</v>
       </c>
       <c r="C3">
-        <v>0.16009527568962301</v>
+        <v>0.219833276753617</v>
       </c>
       <c r="D3">
-        <v>-4.63625645924792E-2</v>
+        <v>-4.1562374224731601E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="B4">
-        <v>-0.70577523324649705</v>
+        <v>-0.94563593277771696</v>
       </c>
       <c r="C4">
-        <v>0.12972875732716899</v>
+        <v>0.190142318062685</v>
       </c>
       <c r="D4">
-        <v>-4.6715050984454901E-2</v>
+        <v>-4.26750814689211E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="B5">
-        <v>-0.58550411939154001</v>
+        <v>-0.82583136112841005</v>
       </c>
       <c r="C5">
-        <v>9.9079759900345801E-2</v>
+        <v>0.16009527568962301</v>
       </c>
       <c r="D5">
-        <v>-4.7296269947539202E-2</v>
+        <v>-4.3820725981462499E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="B6">
-        <v>-0.46505465530990697</v>
+        <v>-0.70577523324649705</v>
       </c>
       <c r="C6">
-        <v>6.8185624491399199E-2</v>
+        <v>0.12972875732716899</v>
       </c>
       <c r="D6">
-        <v>-4.8078039336077502E-2</v>
+        <v>-4.4997911970990699E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="B7">
-        <v>-0.34446353107518202</v>
+        <v>-0.58550411939154001</v>
       </c>
       <c r="C7">
-        <v>3.7083990845450797E-2</v>
+        <v>9.9079759900345801E-2</v>
       </c>
       <c r="D7">
-        <v>-4.9031891923344902E-2</v>
+        <v>-4.6205205217707698E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="B8">
-        <v>-0.223767479911999</v>
+        <v>-0.46505465530990697</v>
       </c>
       <c r="C8">
-        <v>5.8127515122584298E-3</v>
+        <v>6.8185624491399199E-2</v>
       </c>
       <c r="D8">
-        <v>-5.01291184657413E-2</v>
+        <v>-4.7441134820762697E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="B9">
-        <v>-0.103003267006749</v>
+        <v>-0.34446353107518202</v>
       </c>
       <c r="C9">
-        <v>-2.5589994320018E-2</v>
+        <v>3.7083990845450797E-2</v>
       </c>
       <c r="D9">
-        <v>-5.1340811071705302E-2</v>
+        <v>-4.8704194990313802E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B10">
-        <v>1.7792321691444301E-2</v>
+        <v>-0.223767479911999</v>
       </c>
       <c r="C10">
-        <v>-5.7085987242801797E-2</v>
+        <v>5.8127515122584298E-3</v>
       </c>
       <c r="D10">
-        <v>-5.2637906819940697E-2</v>
+        <v>-4.9992846882103398E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B11">
-        <v>0.13858249067609299</v>
+        <v>-0.103003267006749</v>
       </c>
       <c r="C11">
-        <v>-8.8636854240300905E-2</v>
+        <v>-2.5589994320018E-2</v>
       </c>
       <c r="D11">
-        <v>-5.3991231571277602E-2</v>
+        <v>-5.1305520472305799E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B12">
-        <v>0.259330446091602</v>
+        <v>1.7792321691444301E-2</v>
       </c>
       <c r="C12">
-        <v>-0.12020415544111999</v>
+        <v>-5.7085987242801797E-2</v>
       </c>
       <c r="D12">
-        <v>-5.5371543918220301E-2</v>
+        <v>-5.2640616470351197E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B13">
-        <v>0.379999406941044</v>
+        <v>0.13858249067609299</v>
       </c>
       <c r="C13">
-        <v>-0.15174943095131699</v>
+        <v>-8.8636854240300905E-2</v>
       </c>
       <c r="D13">
-        <v>-5.6749579216056001E-2</v>
+        <v>-5.3996508267419897E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.50055261628999304</v>
+        <v>0.259330446091602</v>
       </c>
       <c r="C14">
-        <v>-0.18323424771185601</v>
+        <v>-0.12020415544111999</v>
       </c>
       <c r="D14">
-        <v>-5.8096093639357901E-2</v>
+        <v>-5.5371543918220301E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>0.62095335246305805</v>
+        <v>0.379999406941044</v>
       </c>
       <c r="C15">
-        <v>-0.214620246323382</v>
+        <v>-0.15174943095131699</v>
       </c>
       <c r="D15">
-        <v>-5.9381908207617302E-2</v>
+        <v>-5.6764048153617401E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>0.74116494022965196</v>
+        <v>0.50055261628999304</v>
       </c>
       <c r="C16">
-        <v>-0.24586918778122599</v>
+        <v>-0.18323424771185601</v>
       </c>
       <c r="D16">
-        <v>-6.0577952723813402E-2</v>
+        <v>-5.8172324421699097E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>0.86115076197562601</v>
+        <v>0.62095335246305805</v>
       </c>
       <c r="C17">
-        <v>-0.276943000063755</v>
+        <v>-0.214620246323382</v>
       </c>
       <c r="D17">
-        <v>-6.1655309569849097E-2</v>
+        <v>-5.9594656954762702E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>0.98087426885734896</v>
+        <v>0.74116494022965196</v>
       </c>
       <c r="C18">
-        <v>-0.30780382451725502</v>
+        <v>-0.24586918778122599</v>
       </c>
       <c r="D18">
-        <v>-6.2585257302918196E-2</v>
+        <v>-6.10293128597083E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>1.1002989919348301</v>
+        <v>0.86115076197562601</v>
       </c>
       <c r="C19">
-        <v>-0.33841406198087498</v>
+        <v>-0.276943000063755</v>
       </c>
       <c r="D19">
-        <v>-6.3339313997166899E-2</v>
+        <v>-6.2474544229309301E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>1.21938855328054</v>
+        <v>0.98087426885734896</v>
       </c>
       <c r="C20">
-        <v>-0.36873641859541301</v>
+        <v>-0.30780382451725502</v>
       </c>
       <c r="D20">
-        <v>-6.3889280275278001E-2</v>
+        <v>-6.3928590271760399E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>1.33810667706043</v>
+        <v>1.1002989919348301</v>
       </c>
       <c r="C21">
-        <v>-0.398733951240134</v>
+        <v>-0.33841406198087498</v>
       </c>
       <c r="D21">
-        <v>-6.4207281975025399E-2</v>
+        <v>-6.5389679455939001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1.21938855328054</v>
+      </c>
+      <c r="C22">
+        <v>-0.36873641859541301</v>
+      </c>
+      <c r="D22">
+        <v>-6.6856031669738497E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>1.33810667706043</v>
+      </c>
+      <c r="C23">
+        <v>-0.398733951240134</v>
+      </c>
+      <c r="D23">
+        <v>-6.8325860388860404E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>10</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>1.45641720058397</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>-0.42837011254227397</v>
       </c>
-      <c r="D22">
-        <v>-6.4265812396281999E-2</v>
+      <c r="D24">
+        <v>-6.9797374853416999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1.5742840853195701</v>
+      </c>
+      <c r="C25">
+        <v>-0.45760879540439098</v>
+      </c>
+      <c r="D25">
+        <v>-7.1268782249706897E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>1.6916714278723499</v>
+      </c>
+      <c r="C26">
+        <v>-0.486414376995288</v>
+      </c>
+      <c r="D26">
+        <v>-7.2738289894468205E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>1.8085434709206201</v>
+      </c>
+      <c r="C27">
+        <v>-0.51475176215095697</v>
+      </c>
+      <c r="D27">
+        <v>-7.4204107418996898E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>1.92486461410789</v>
+      </c>
+      <c r="C28">
+        <v>-0.54258642613262698</v>
+      </c>
+      <c r="D28">
+        <v>-7.5664448950431604E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>2.0405994248871102</v>
+      </c>
+      <c r="C29">
+        <v>-0.56988445668983601</v>
+      </c>
+      <c r="D29">
+        <v>-7.7117535287564501E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>2.1557126493137901</v>
+      </c>
+      <c r="C30">
+        <v>-0.59661259537728994</v>
+      </c>
+      <c r="D30">
+        <v>-7.8561596068523407E-2</v>
       </c>
     </row>
   </sheetData>
